--- a/biology/Médecine/Acanthome/Acanthome.xlsx
+++ b/biology/Médecine/Acanthome/Acanthome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un acanthome est une tumeur de la peau affectant les cellules du derme et de l'épiderme. 
-Il est toujours situé dans le Stratum spinosum[1]. 
+Il est toujours situé dans le Stratum spinosum. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les Acanthomes comprennent : 
 l'acanthome de la lèvre supérieure (« pilar sheath acanthoma » pour les anglophones), une tumeur folliculaire, bénigne ;
@@ -545,9 +559,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2005, "Acanthome" a été ajouté à l'index des termes du MeSH ; L'indexation précédente était «néoplasmes cutanés" (1965-2004)[2]. À l'époque, PubMed ne comprenait que 206 articles indexés avec Acanthome comme mot-clé (généralement présent dans le titre ou le résumé).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2005, "Acanthome" a été ajouté à l'index des termes du MeSH ; L'indexation précédente était «néoplasmes cutanés" (1965-2004). À l'époque, PubMed ne comprenait que 206 articles indexés avec Acanthome comme mot-clé (généralement présent dans le titre ou le résumé).
 </t>
         </is>
       </c>
